--- a/500all/speech_level/speeches_CHRG-114hhrg93916.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93916.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The hearing will come to order.    Let me begin by thanking Ambassador Jacobs and all of our distinguished witnesses and guests for being here today, especially the left-behind parents that I see in the audience who are joining us this afternoon to continue to increase attention on international parental child abduction, whose victims include primarily children denied the love and attention of one of their parents, and parents cut off from their children that they love.    Every year, by some estimates, approximately 1,000 American children are unlawfully removed from their homes by one of their parents and taken across international borders. Less than half of these children ever come home. Most of the left-behind parents in the audience today have not seen their children in years and know all too well the financial, legal, cultural, and linguistic obstacles to bringing their children home from a foreign country.    Many of you have already been through a U.S. judicial proceeding prior to the abduction, and the courts have settled custody and visitation only to have a kidnapping spouse defy a court order. Others of you were caught completely by surprise when a spouse's vacation turned into an abduction, a phone call in the middle of the night telling you that you will never see your child again.    Your suffering is exponentially compounded by knowledge of the pain caused to your child by the separation. Child abduction is child abuse. Parentally abducted children are at risk of serious emotional and psychological problems and may experience anxiety, eating problems, nightmares, mood swings, sleep disturbances, aggressive behavior, resentment, guilt, and fearfulness. These young victims, like their left-behind parents, are American citizens who need the help of their Government when normal legal processes are unavailable or have failed.    In 1983, the United States ratified the Hague Convention on the Civil Aspects of International Child Abduction to try to address abduction and access. This Convention created a civil framework for a quick return of abducted children and for rights of access for left-behind parents. Absent extenuating circumstances, the child or children are to be returned within 6 weeks to his or her country of habitual residence for the courts there to decide on custody or to enforce any previous custody determinations.    The Convention has helped return some children, but implementation has been unpredictable and spotty at best. Susceptible to abuse by taking parents or judges who either don't understand their obligations under the Convention or are unwilling to abide by them, the Convention has too often been stretched to provide cover for the abduction rather than the recovery of the child.    Some Hague Convention parties are simply not enforcing legitimate return orders. The State Department's 2014 Hague Convention compliance report highlights four countries--Brazil, Mexico, Romania, and Ukraine--that habitually fail to enforce return orders. Other countries--Costa Rica, Guatemala, Honduras, and The Bahamas--are non-compliant with the Convention.    In other words, abducted American children are not coming home from these countries, and so many other countries where the Convention operates weakly or with which the United States has no bilateral agreement of any kind.    To give one more example, Jeffery Morehouse, a left-behind parent who will testify today, will say that there have been 400 cases of U.S. children kidnapped to Japan to 1994. We do not know of a single case in which the Government of Japan has issued and enforced an order for the return of an abducted child to the United States. That is unconscionable. And I must emphasize that since they have signed the Hague Convention, Japan's efforts have been breathtakingly unresponsive, especially for abductions that occurred prior to their ratification of the Hague Convention.    Mr. Morehouse will testify that 1 year ago, next week, at the very moment Japan acceded to the Hague Abduction Convention, parents joined us to hand deliver 30 Article 21 access applications. I would note parenthetically I joined those parents at the Japanese Embassy. They were unbelievably respectful and disciplined and very, very cordial, and yet very, very determined. None of the back-home parents, however, have received access to their kidnapped children. That is almost a year ago next week.    Japan's implementation of the Hague Abduction Convention--Mr. Morehouse will go on to say--is an abysmal failure. Sanctions under the Goldman Act will provide some of the necessary public pressures on Japan to create change to this ongoing human and family rights crisis.    Again, the status quo is simply not acceptable. Over the last 5 years, many of you who are here today helped me and my staff write and pass through the Congress the Sean and David Goldman International Child Abduction Prevention and Return Act, simply known as the Goldman Act. Today's hearing occurs more than 7 months after the Goldman Act became law and gives us an opportunity to hear from the State Department and parents about whether the bill's key provisions are being implemented according to the law.    A brief refresher on Sean and David, David Goldman spent over five agonizing years trying to legally rescue his son Sean from abduction to Brazil, which is a signatory nation, like the U.S., to the Hague Abduction Convention. Despite Mr. Goldman's airtight case that demonstrated an egregious example of both child abduction and wrongful retention, the Hague Treaty was unavailing and the outcomes in the Brazilian courts proved mostly infuriating and firm and ineffective.    David Goldman waged his case by the book and won judgments in New Jersey courts, yet both Sean and David were made to suffer emotional pain for over half a decade as one delaying ploy after another was employed by the abducting party. In the end, because of a father's abiding love for his son, and an indomitable will, like so many of you here today who have suffered so much, the Goldmans today are united and happy, unlike you who still are separated.    To underscore, the Goldman Act was not intended to simply reform the system, but to bring about a fundamental sea-change in U.S. diplomacy, so that the State Department officials would see themselves as advocates for the return of abducted American children.    Now, under the Goldman Act, when a country fails to appropriately address an abduction case pending for more than 12 months, the law requires the Secretary of State to take action. When a country has more than 30 percent of its U.S. cases pending for more than a year, the law requires the Secretary of State to designate the country as non-compliant in the annual report and take action.    The Goldman Act specifically lists the increasingly escalating actions that Congress has in mind, from a demarche or protest through diplomatic channels to a public condemnation to a delay or cancellation of one or more bilateral visits, and even withdrawal, limitation, or suspension of foreign assistance, including non-humanitarian aid and including security assistance to the central governmental authority of a country.    These are serious sanctions. They must be seriously applied by a country that takes parental child abduction seriously. We may also request extradition, where appropriate.    If these measures sound pointed, it is because they are intended to focus the designation country on quick and accurate resolution to abduction and access cases, and we hope to find out today from Ambassador Jacobs how these tools are being used and with what frequency.    The Goldman Act was written to cover countries that have signed the Hague Convention, such as Brazil, and countries that have not signed the Convention, such as India, and countries that have a mix of open abduction cases from before and after signing the Hague Convention, such as Japan.    In 2013, India was the number 3 destination in the world for parents who abducted from the United States. Currently, there are 64 known open abduction and denial of access cases involving India, and yet the United States does not have any sort of resolution mechanism to my knowledge in India or with India. Moms and Dads are left in the United States. They are forced to enter a foreign court system known for its incessant appeals and multi-year delays and even mega-intimidation.    But now the Goldman Act applies. India will now face real penalties for any case that has been pending for more than 1 year and will be named and shamed in the State Department's report. As with the State Department's annual Trafficking In Persons Report, there is morally suasive value in simply reporting what a country does and some countries will, I am sure, respond to such moral pressure.    Thus, we expect the State Department will apply these penalties zealously and work with India on establishing a bilateral agreement for the efficient and fair resolution of abduction and access cases. If the State Department faithfully applies the laws written, it will be in India's best interest to come to the negotiating table.    The same holds true for Japan. Even though Japan recently signed the Hague Convention, in the upcoming April report Congress expects that Japan will be evaluated not just on its handling of new abduction cases after it joined the Hague last year, but on its work to resolve all open abduction cases, including the 67 cases that I and others have been raising with State for the last 5 years.    Among such cases is that of Michael Elias, who has not seen his children, Jade and Michael, since 2008. Michael served as a Marine and saw combat in Iraq. His wife, who worked in the Japanese Consulate, used documents fraudulently obtained with the apparent complicity of the Japanese Consultant personnel to kidnap their children then aged four and two in defiance of a court order telling Michael on the phone call that there was nothing that he could do. She said, ``My country''--that is, Japan--``will protect me.'' Her country will protect her, but what is our country doing to protect Michael and his children?    While the State Department has touted Japan's accession to the Hague Convention as an accomplishment, Japan has said the Convention would only apply in post-ratification cases. As Ambassador Jacobs knows, I and several others predicted that unless an MOU or other bilateral agreement was concluded with Japan, American children and their left-behind parents will be left behind in perpetuity.    I ask my friends at the State Department once again, what then is to happen for the parents already suffering from abductions prior to ratification? Would they be left behind again, this time by their own Government?    I know Ambassador Jacobs, who is here to testify, as recently as February 2014 in her testimony before the Senate stated that she would continue to make progress with the Japanese Government on resolving existing cases in the spirit of the Convention. We will have a chance to ask the Ambassador what progress has been made on resolving cases like those of Michael Elias, Captain Paul Toland, and so many others who are suffering every single day. And I am sure when they wake up in the morning it is the first thing they think of.    The Goldman Act requires accountability for the Japanese Government on the abduction cases open at the time when Japan signed the Convention. Unless Japan resolves scores of American cases before the end of next month, nearly 100 percent of abduction cases in Japan will still be unresolved, and the Goldman Act penalties will apply.    The Goldman Act has given the State Department new and very powerful tools to bring Japan and other countries not to the negotiating table, but the resolution table. The goal is not to disrupt relations but to heal the painful rifts caused by international child abduction. I look forward to hearing testimony on the Department's use of the tools.    And I would now like to yield to Dr. Bera, serving as acting ranking member, for his opening comments.</t>
   </si>
   <si>
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Chairman Smith, and I want to thank Ranking Member Bass for as well for calling this important hearing to discuss the issue of international child abductions and the Goldman Act. I especially want to thank the chairman for his tireless effort and work on this issue.    I also want to thank the witnesses and the left-behind parents for your heartfelt testimony today. It, obviously, cannot be easy, but it is incredibly important to hear these stories.    As we will hear today, this is a serious issue. Approximately 1,000 U.S. children are reported to the State Department as victims of international child abduction annually. These abductions are devastating to families, especially to the children. Many of these children are too young to know what is occurring and are isolated from their left-behind parent. The left-behind parent has to go through a stressful and expensive legal process, and, as we will hear today, not always successfully.    One avenue to pursue in order to combat this issue is to push more countries to sign the Hague Convention. This brings those nations into a legal framework in which they can resolve the issue in a more effective manner. This, however, is not a panacea, but it is a good first step.    In addition, just signing onto the Hague Convention doesn't solve the issue if the countries don't adhere to what is in there. I am going to implore the State Department to continue to push more countries to sign the Hague Convention and continue to work on reuniting left-behind parents with their children.    And, again, I just want to commend the chairman for your tireless work on this issue.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. And, Ambassador Jacobs, thank you for being back with us. It is good to have you here. You expressed your heart the last time that you were here, and I think that was evident, because one of the troubling things I think for parents--and I met one parent yesterday in the hallway coming between the Capitol and back to the offices.    One of the difficult things for a lot of parents is they see other things that the State Department is engaged in, not you, but other things that the State Department, as a whole, is engaged in. And what they have come to the realization, or at least the belief, is that it is not a priority for the State Department to return these children. And because of that, it is very difficult, as a dad, because you empathize with just the thought of not being able to visit or see your children, that priority.    So I am looking forward to hearing from you today on the progress we have made since the last hearing where we had a chance to hear a little bit from your heart.    But I want to put it in the context, you know, when we see the State Department, when we see five GTMO prisoners being traded for a potential deserter, and we see that kind of priority from the administration and we don't see progress here.    What happens is there is this balance that goes out, and I am not trying to be critical of that decision or of your agency. I am just saying there is a natural assumption that says, well, if they would make the same priority for my son or daughter, I would get to see them.    And so I hope that we hear some of that from you today. I do appreciate you coming back and the emphasis that you put on it. And I will yield back to the chairman.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Walorski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Walorski. Thank you, Mr. Chairman. I am grateful for your efforts and for the help that you have given me and remain grateful. I am grateful I am allowed to come as a non-member.    The Honorable Ambassador, I actually came to seek your help. And I really, in the short amount of time in an opening statement, just want to familiarize with a case that I am working on in the State of Indiana. I have worked on this for 3 years. The case has been active for five. And I know this is small, but forgive me, this actually just came from Cyprus.    These are my constituents. This is Marla Smith-Theocharides, and her kids were kidnapped in Cyprus. And there is domestic problems in my district in Indiana. This couple was divorced. We have been working through every single legal channel there has been trying to secure the release of these kids.    And I literally came here today, and I am grateful to this chairman, I was so thrilled to hear that the Goldman bill passed and that there maybe was some help for people in my district, because, you know, I look at this, and you have done phenomenal work on this. I am here in my role, you know, as a Congresswoman representing these kids and this mother. I am also here as a fellow advocate on domestic violence and the things that we have all worked on our whole lives.    But I am appealing to you in the position that I have to say we need help. We can't move the Cypriot Government. We have used every law that we can. They are completely ignoring it. They are denying any kind of help for this woman and these kids. And it is an honor for me to actually just be able to sit here and have engaged in a conversation with you just to try to get your help, because you know what?    And, you know, my point earlier to you--and, again, for the record, is, you know, we are--I am not a believer in domestic violence. I have fought domestic violence my entire life, all over the globe, not just my district but in places like Eastern Europe and Romania where my husband and I were missionaries.    And back to the chairman's point, these are American kids. This is a mother of two kids who has lost access to these kids, has no help whatsoever from the Government that she is trying to comply with. We have gone through every channel possible, and there is police reports filed of this estranged husband coming back, perpetrating violence on her, there is violence being perpetrated on these kids, and they are American citizens.    And I just would implore you and am grateful to you, so thankful that you are here today, thankful that I am allowed the opportunity to make this case, but just wanted to make you aware of it. And I am definitely going to follow up, but just asking for your help on behalf of these constituents in the State of Indiana.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you very much, Mr. Chair. As usual, this is an issue that you have championed for many years. I will share with my other colleague there, I remember years ago watching the case in Brazil, long before I ever knew I would be coming to Congress, and then I get to sit next to the person that championed it, so--along with your leadership for many years.    I just have a couple of questions. I wanted to know if you could describe how our Government is engaging in efforts to prevent these abductions from taking place in the first place, and how our Government measures the effectiveness of programs to prevent the abductions. And then, what actions has the State Department taken to encourage mediation as an option for returning children? Especially to return children from countries that are not Hague Convention participants.    Ambassador Jacobs. Thank you so much for those questions. We have a number of programs to protect children from abduction, some of them of longer standing than others. All of them are really a part of the Operation Prevent Depart. So we have for children under the age of 16 a two-parent consent rule, which means both parents have to give their permission for a child to be issued a passport.    And we also have a Passport Alert Program where a parent who feels their child will be abducted can notify us, and we will put an alert in the system so that a passport will not be issued unless the parent who put the hold in is notified. And it is hard to know what the success rate is, but it is a deterrent and it works.    We also work very closely with Customs and Border Protection to prevent departures from the United States. We also have the prevention working group that I chair with members from Justice, Homeland Security, it will include Defense now, and the Federal Bureau of Investigation, and we work on new programs.    This is mandated by the law. It is something that we had started doing before, and we do work very closely with law enforcement. And I think it is effective. As you know, it is easier to prevent the abduction than it is to get a child back.</t>
   </si>
   <si>
@@ -349,27 +334,18 @@
     <t xml:space="preserve">    Mr. Smith. Ms. Philips.</t>
   </si>
   <si>
-    <t>Philips</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Philips. Thank you, Mr. Chairman, and distinguished members of the committee. It is my honor and privilege to testify before you today, and I thank you for your time to hear of my plight.    My name is Bindu Philips, and it is my ardent hope that my story will capture your attention today. While I have held many roles in life, none has been more meaningful to me than that of motherhood. Fourteen years ago, I was blessed to be the mother of twin boys, my precious children, Albert Philip Jacob and Alfred William Jacob.    When my children were born, my ex-husband, Sunil Jacob, and I made a joint decision that I would stay home with them and be their primary caretaker. I was an active and loving mother in every aspect of our children's lives. My children came first in everything I did and in every decision I made.    Tragically, my world, and that of my innocent children, was violently disrupted by my ex-husband, Sunil Jacob, in December 2008 when he orchestrated the kidnapping of the children during a vacation to India. I would note that the children, my ex-husband, and I are American citizens, and the children were born in America, which is the only nation they identified with as home.    Sunil Jacob worked in the financial industry and was terminated by his employer, Citi Group, late in 2008. My ex-husband pressed me to agree to a family vacation to India during the children's winter break. My ex-husband was both physically and emotionally abusive to me, and I feared the consequences of refusing him. I had seen the return tickets dated January 12, 2009, and I had every reason to believe that we would be home in a few weeks to resume our life back in the United States. Had I known what would follow, I would have never boarded that flight to India.    On reaching India, I was not only physically and emotionally abused by my ex-husband, but also by his parents. I was, finally, very cruelly separated from my children with no means to communicate with them.    I could not bear the separation of my children, and on learning that my children were admitted to a local school in India I approached the principal requesting that I be allowed to see my children, and I was granted permission. As soon as my husband learned about this, he transferred them to anther school and gave the school strict orders that the mother or any material relatives should not be allowed to see or communicate with the children.    Unable to communicate with the children, I ultimately returned to the United States 4 months later on April 9, 2009. I literally came home to an empty house. Our residence in Plainsboro was devoid of all furniture and possessions and both the cars were gone from the garage. While in India, my ex-husband had three of his friends strip the entire house of everything inside. They took everything, leaving me with not even a single photograph of my children.    He had not paid the mortgage on the Plainsboro home, nor the utilities, or the equity line of credit, which he had transferred to India, and left me with this additional financial burden.    Heartbroken and impoverished, I had to start from nothing and survived initially on the graciousness of good people. My neighbors allowed me to move in with them briefly, and a local church provided me a car. Shortly thereafter, I found employment, secured an apartment, and purchased a car of my own.    Over the last 6 years, I continue to uncover information that shows how deceptive my ex-husband, Sunil Jacob, is. The investigation reports from the Plainsboro Police show that he had planned the move to India as early as March 2008. He had communicated his intentions to the principal of the children's elementary school, without my knowledge.    In November 2008, 1 month before the trip to India, Sunil Jacob obtained an Indian visa for him and the children, known as OCI, Overseas Citizen of India, that would allow him and the children to stay for an extended period of time in India, since the children are American citizens, and without an OCI visa they can stay in India only for 6 months.    An Indian OCI visa is granted to minor children only after the approval of both parents. Sunil Jacob obtained the visas by fraudulent means, as I have not signed on any OCI application for my children. Sunil Jacob, an American citizen, deceptively abducted my American citizen children and is staying in India, out of my reach, and that of the Hague Convention, indefinitely. Please note, India does not honor dual citizenship.    I also came to know that he has remarried. In 2013, Sunil Jacob's family member confirmed with the Plainsboro Police that the separation of the children from me was planned well in advance.    Frustrated, but determined, on May 14, 2009, I filed a petition with the Superior Court of New Jersey for the custody of our children. Sunil Jacob tried to delay the matter by arguing that the U.S. did not have jurisdiction to hear the case, but the American courts, both the Superior Court and the appellate levels, have held that the jurisdiction was indeed proper with the Superior Court family part.    My ex-husband was in contempt of the court order granting me parenting time over the children's winter break, although he participated in this hearing over the phone. The flight information was conveyed to Sunil Jacob. The Honorable Superior Court of New Jersey granted me residential and legal custody of the children in December 2009. The U.S. court order was served to Sunil Jacob by the U.S. Court and the Ministry of Law and Justice, New Delhi, India.    The Plainsboro Police and the FBI have issued arrest warrants against Sunil Jacob. Please note, in 2007, while Sunil Jacob was working at Citi Group, he was involved in an unknown incident at his office that resulted in an FBI inquiry on him. His colleague told me when I returned that he had an affair with an Indian woman at his office.    Despite having kidnapped our children, Sunil Jacob filed for custody of the children in the Indian courts after the U.S. child custody was filed. The case is currently pending at the Honorable Supreme Court of India.    In addition to wrongfully keeping the children from me, Sunil Jacob has thwarted every effort I have made to speak to our children and let them know I love them. Beyond kidnapping, Sunil Jacob continues to file false cases against members of my family and me in India and is brainwashing and alienating the children from their own mother. He believes that if his campaign for harassment becomes too much for me to bear, we will back away from the quest for me to regain custody of our children. He must learn that this will not happen. He must be held accountable for his reprehensive actions.    My children have lost 6 years of their mother's love and care, and I have lost 6 years of my children's childhood that neither of us will ever get back.    Every day I awaken with the heart-wrenching reality that I am separated from my children that I love more than anything in this world. I have done everything I can think of to do in this nightmarish situation, and I will never give up on my children. Yet I am here because I can no longer fight the good fight on my own. I respectfully request that you, the Members of the Congress, help me to make my voice heard in a way that shall be meaningful and allow me to be reunited with my children who need the love and nurturing of their mother.    Please help me put an end to the nightmare that Sunil Jacob has created for my family. Please help my precious children and me. I do not want to know, and cannot imagine, a meaningful life without them. Please act not just on the benefit of two innocent children and their broken-hearted mother. Please think of all of the other children and parents caught in similar nightmarish situations due to the hostile-minded parents who abduct children to overseas nations.    I am very thankful to Congressman Chris Smith and his staff for working so hard and passing the Sean and David Goldman International Child Abduction Prevention and Return Act of 2014. I thank Congressman Chris Smith for being a champion for the noble cause of reuniting the children and their left-behind parents and for being an angel to our children and to us, the left-behind parents.    The Goldman Act was signed into law by President Obama on August 8, 2014. Goldman Act instructs the State Department to take serious action when the case is pending for over a year, and my case has been pending for over 6 years, and I am waiting for the State Department to reunite me with my precious children. The State Department can also apply Section 201, which is high level diplomacy and extradition of my children on my case now, and I am hoping and trusting that they will do so without any further delay.    I request the State Department and the Office of Children's Issues to take speedy action, and to please implement the law as soon as possible and put a smile back on the faces of our children and us, the left-behind parents.    Thank you from the bottom of my heart for accepting my humble request during your otherwise pressing schedules. Thank you so much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you so very, very much for your testimony and your example, which encourages all of us to do more.    Mr. Morehouse, you are recognized.</t>
   </si>
   <si>
-    <t>Morehouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Morehouse. Thank you to the chairman and the committee for inviting me here today. I will be summarizing my written testimony for you.    There have been 400 cases of U.S. children kidnapped to Japan since 1994. The Japanese Government has returned zero children.    On behalf of the 71 kidnapped children listed on the BAC Home Web site, who have been rendered voiceless by their abductors, for my fellow parents of internationally kidnapped children who feel marginalized by the lack of active, engaged, transparent assistance from the Office of Children's Issues in recovering their loved ones, I implore Congress to ensure that the Department of State finds Japan non-compliant and imposes sanctions under the Goldman Act.    One year ago next week, at the very moment Japan acceded to the Hague Abduction Convention, parents joined together to hand-deliver with us 30 applications for access under Article 21. This was supposed to be an efficient path to see our children again. Though we parents may have applied for access under Article 21, as we were encouraged to do so by the Department of State, our collective cases remain abduction cases.    Over the past 12 months, the Office of Children's Issues time and again insisted that we must give Japan time. We must wait and see. Well, we have waited and we have seen. None of the BAC Home parents have received any access to their children. Japan's implementation of the Hague Abduction Convention is an abysmal failure. Sanctions under the Goldman Act will provide some of the necessary public pressure on Japan to create change in this ongoing human and family rights crisis.    It is crucial that Members of Congress be made aware of the first Hague Article 21 access case to make it through the Japanese family court process. This case is typical of what parents are encountering in their attempts to gain access to their kidnapped children. Under Article 21, the central authorities are bound to promote peaceful enjoyment of access rights and fulfillment of any conditions to which the exercise of those rights may be subject.    The central authorities shall take steps to remove, as far as possible, all obstacles to the exercise of such rights. Now, instead of removing obstacles, the Japanese Government has erected multiple barriers interfering with the exercise of parental rights. These actions are prejudicial and designed to prevent victimized parents from gaining access to his or her children.    The actions by the court in this pioneer case include: One, a request by Henrik Teton for interim access to his children under the Hague, which was ignored by the court. Two, the judge walked out of the room when the father, who was representing himself, asked questions of the court. And, three, the father, who was denied the use of his own translator, was forced to use a court-appointed translator with no ability to ensure that the translations were accurate. Number four, the judge refused to provide his name; therefore, making accountability of his rulings impossible. And, five, the judge ruled that no observers, including Embassy officials, were allowed to witness the proceedings.    In my written testimony, I will also outline what some of the other parents have faced in their failed attempts to gain access.    Now, in consulting with Japanese lawyers, it has become very clear to BAC Home that Japan's implementation provides no reasonable, enforceable means for victimized parents to access or obtain the return of their children. They are simply violating the Hague Abduction Convention and non-compliant, as a country, under the Goldman Act.    There are numerous clear-cut cases of abduction, such as Paul Toland and Paul Wong. Though they are both the only living parent, the grandparents in Japan are holding their daughters from them. There are cases like Randy Collins, whose ex-wife was ordered to surrender the child's passport to the court, and instead she kidnapped him.    Douglass Berg's children were kidnapped from their habitual and legal residence in the United States in 2009 violating his parental rights to access. And Christopher Savoie's ex-wife violated the divorce decree, State, and Federal statutes, when she kidnapped their children.    Now, in my own case, I was granted primary custody of my son in the State of Washington in May 2007. Three years later, in June 2010, I dropped my son Mochi off to begin a week-long visit with his mother. He was 6\\1/2\\ years old. This is where my endless nightmare began.    Six days later, I received a phone call that no parent wants to receive. It was the police. My son and ex-wife had been reported missing. I knew immediately what had happened. She had succeeded in what she had intended on doing, which was kidnapping him to Japan. In that moment, my life was shattered. My days would become consumed with dealing with local law enforcement, the U.S. Department of State, Japanese consular officials, and anything I could think of to try and find my boy.    Now, how could this happen to my child? I did everything I could think of to prevent this. There were even passport and travel restraints in the court order, which barred her from leaving the State of Washington with him. Well, I came to learn the hard way that restraints are only effective if somebody is willing to abide by them. For someone intending to commit kidnapping, restraints have true little power.    When the Seattle Consulate of Japan denied my ex-wife's attempt to obtain a passport, she simply went to the Consulate in Portland, and they issued her one in violation of the Ministry of Foreign Affairs' passport issuance policy.    Some people over the past several years have said to me, ``Well, you know, at least you know where he is. He is safe with his mother.'' But he is not safe. He is at risk. She has willingly and intentionally kidnapped him to a foreign land with the intent of permanently alienating him from me and everyone he knows.    Imagine, just for a minute, being a child and your mother steals you away to a foreign country, and tells you your father doesn't want you anymore or that he is dead. Your whole life is now built on a foundation of lies. This is not what a healthy parent does. This is child abuse.    Every morning I wake up twice. The first time I have this feeling I have to rush out of bed and get my son ready for school, and I can hear his voice and he is saying, ``Daddy, can I have toast and honey for breakfast?'' And I have to get him ready for school. And then my heart skips a beat, and I wake up for real, and I realize he is still missing and that the nightmare continues.    The last time I held his hand, the last time I heard my son's voice, was on Father's Day of 2010.    Last year in my case I won a landmark ruling in Japan where the court acknowledged my U.S. custody order and recognized me as the sole custodial parent under Japanese law. My ex-wife has no legal custody rights there. They also cited her admission of committing illegal acts under Japanese law in order to abduct my son. However, they are still not telling me where he is. He is still being help captive.    Private, back room diplomacy has failed. It has failed to return my son and any of the other kidnapped American children. Public statements by Secretary Kerry, Ambassador Kennedy, and President Obama, could have meaningful effect, but to date we have only heard silence.    It has been Congress that has led the charge on this abduction crisis with Japan, and I urge Members of Congress to ensure that the Department of State finds Japan non-compliant and that sanctions are imposed under the Goldman Act. Without public consequences, there will be no incentive for Japan to change. It will remain a black hole for child abduction.    Now is the time for Japan to demonstrate they are serious about changing course on this ongoing crisis of international parental child abduction. Next month, Prime Minister Abe will come visit Congress and address Congress here in Washington. In addition to non-compliance and sanctions, I am here to ask Congress to tell the Prime Minister that it is not acceptable to continue to hold ``Mochi'' Atomu Imoto Morehouse, or any of the 400 kidnapped American children, anymore.    Thank you for your time today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Morehouse, thank you very much for your very moving testimony.    I would like to now recognize Mr. Davenport.</t>
   </si>
   <si>
-    <t>Davenport</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davenport. Hello. Thank you for having me here today.    In the words of David Goldman on February 27, 2014, at the U.S. Senate Committee on Foreign Relations Hearing on International Parental Child Abduction,        ``My foundation has been assisting a father by the name         of Devon Davenport of North Carolina, whose daughter         Nadia was abducted to Brazil in 2009, just a few weeks         after her birth. Mr. Davenport has fought admirably to         bring Nadia home. In September 2010, a Federal court         first ordered her return to the United States. Since         then, the return order has been upheld by numerous         appeals courts and the legal case is effectively over,         yet Devon is still waiting, as I did, for Brazilian         courts to enforce their own return order and put Nadia         back on a plane to the United States. Our Government         should be demanding, not asking, that Nadia be         returned.''    I am Devon Davenport, the 28-year-old father of Nadia Lynn, and I still happen to be waiting for justice concerning her illegal abduction to Brazil some 6 years ago.    I believe that it has been made evident in the past via various testimonies from left-behind parents and politicians that the issue of international child abduction is a great concern. However, it is absurd that after the immense effort to pass Chris Smith's Goldman Act that we must convince the U.S. Department of State, the sole governmental department responsible for assisting left-behind parents, systematically navigate legally through the Hague Convention Treaty to effectively utilize the rhetoric, equipping them with necessary tools to increase resolutions for international abduction cases.    The U.S. Department of State no longer lacks the necessary tools needed in order to optimize and create an efficiently robust pipeline for handling Hague cases and distributing pertinent information between left-behind parents and central authorities from opposing countries.    Countless times throughout my 6-year legal battle, I have been the one to provide updates and ask follow-up questions in hopes of obtaining valuable information toward an actual resolution of my case. The Department of State is notorious for providing me with the exact same information I provide them with. Hardly do I ever obtain any new information, and I believe that derives from the fact that they are not proactive in their question for justice of behalf of left-behind parents.    An example is today when you asked how many cases, how many returns. They don't even know this type of information. They will get it once you prompt them, but they should have come prepared with that type of information. They should know these numbers. This is what left-behind parents deal with on a daily basis, dealing with the Department of State.    The inability and lack of foresight to initiate constructive yet progressive inquiries to the opposing central authority is not acceptable. Case officers working for the U.S. Department of State should not only be able to predict the questions and concerns of left-behind parents, but also take appropriate measures in obtaining the answers to those questions and concerns while providing feedback to those of us fighting the lengthy battle.    The reason for this inability is the lack of empathy, initiative, and urgency; no longer the tools. Herein lies the issue. Until case workers at the Department of State are able to anticipate the next steps in a given Hague case based on years of internal evidential information from various left-behind parents in each country, then there will be no progressive action taken by them to provide information that some parents never think to ask, but deserve to know, as we look to the Department of State as a source of information and mental solidarity.    Since birth in August 2008, my daughter Nadia Lynn resided with her mother, Larissa Drummond, in Cary, North Carolina. Due to parental alienation and prior threats to leave the country with my daughter to Brazil, a court order was filed and established August 20, 2008, restricting the removal of my daughter outside of the State, as well as confiscation of my daughter's passport to prevent abduction.    At the same time, a custody order was filed and signed on October 8, 2008, by District Court Judge Walczyk, and went into effect on October 14, 2008, notifying each parent that it is a felony to transport the minor child outside of the state. The court order also states that it shall remain into effect until replaced by another parenting agreement or court order pertaining to custody.    According to the signed court-ordered visitation schedule between Larissa Drummond and I, October 14, 2008, our daughter Nadia Lynn was scheduled to have visitation at my residence on Mondays, Tuesdays, and Saturdays. On Saturday, February 7, 2009, my daughter was not brought to my residence for visitation scheduled at 8 o'clock a.m.    At 8:07, I immediately contacted Larissa asking where she was. After getting no response, I contacted her mother. I then called the Cary Police Department. Upon their arrival, I provided the court-ordered visitation, and the officer and I went to Larissa's residence and found the house empty.    With knowledge of prior threats made by Larissa to leave the country with my daughter back to Brazil, we contacted the U.S. Department of State to inquire about a possible abduction and were informed that I would receive a call on Monday, February 9, 2009, from the abduction officer who handles cases to Brazil, who happened to be Ms. Daisy Cardiel at the time. Soon after, I received from NCMEC a protocol number for my daughter, as well as a kidnapping case number for my daughter.    There was a court order calendared by Wake County Courthouse to have my name added to my daughter's birth certificate. On February 10, 2009, I filed to have an emergency order granting me sole legal and physical custody of my daughter Nadia, as well as immediate return of her back to her habitual residence in North Carolina, which Judge Walczyk signed on February 12, 2009.    April 20, 2009, the Department of State emailed me saying, ``The Brazilian Central Authority would like me to inform you that your case was sent to Interpol on 2009, April 2. Furthermore, despite the fact that the child has not been located, the Brazilian Central Authority sent the file to the Federal Attorney's Office in order to commence an analysis on your case.''    April 19, 2009, I receive a message on the Bring Sean Home Foundation forum from a 21-year-old law student asking me about information on my daughter and the mother. I provided the last name, first name, and possible state that my daughter would be in. Eight days later he provides me with the address of my daughter in Brazil, while it had taken Interpol and the FBI, what, 4 months. They still hadn't found her.    I provided this information to the U.S. Department of State May 6, 2009. It took them 3 months later to confirm the address that I provided them.    April 14, 2010, I arrived in Brazil for the first instance hearing on the international abduction of my daughter Nadia Lynn. September 14, 2010, I received a favorable ruling, which issued the return of Nadia back to the United States. I was ordered to spend a 15-day transition period in Brazil before returning. During this transition period, the mother filed an appeal, ultimately suspending the return as well as the transition period between Nadia and I, on September 26, 2010.    November 30, 2011, the TRF Federal Court of Brazil rejected the mother's appeal by a majority panel. She appealed again within the Federal Court. March 23, 2012, the Federal judge upheld the first instance court order for the return of Nadia back to the United States. The mother filed another appeal to the Superior and Supreme courts.    May 21, 2012, Special Advisor for Children's Issues, Ambassador Susan Jacobs, spoke to the Brazilian Central Authority directly and requested that my case be expedited and expressed her concerns on the delays and appeals that my case has received. April 11, 2013, TRF President rejected the appeal filed by the mother before the STJ and STF. And I was told that the request for the enforcement of my daughter to return back to the United States will be filed on April 30. It was not.    August 14, 2013, Ambassador Susan Jacobs and Scott Renner traveled to Brasilia, Brazil, to speak directly with proper personnel to have my case expedited and ruled on. However, I received no official report on this meeting. I have no clue what was discussed, with whom the discussion occurred, and what the outcome of said meeting was, although I was told that I would receive a formal detailed summary within 3 weeks. I was never sent that information.    August 27, 2013, a hearing at the first instance court in Criciuma was scheduled in which the charge of the enforcement order would decide the logistics of the return. Instead, they postponed this, and the appeal was dismissed at the STJ Court in Brasilia, Brazil. September 6, 2013, the appeal was dismissed by the sitting judge at the STJ Court in Brasilia. Being that it was a monocrotic decision, the mother appealed again.    September 27, 2013, the Brazilian Central Authority and OAG filed a motion on the first instance court for the temporary execution of the enforcement order. This was a request that the judge not wait until the appeals were decided upon. The judge was to formally respond to this motion with a decision.    October 11, 2013, I was informed that my case would be heard on October 17. It wasn't. October 17, instead of ruling on the appeal, it was removed from the agenda.    April 14, 2013, the STJ and STF appeals to the return order were rejected by the TRF president and were yet again appealed only once again to be dismissed by the STJ on September 10, 2013, ultimately allowing Nadia to return to the United States once and for all following a 15-day transition period in Brazil set to occur in 2014.    June 17, 2014, I traveled to Brazil to complete the 15-day transition period with my daughter, with the expectation to return home once and for all to the United States. Upon arrival to Brazil, I was immediately served with another appeal stating the transition period and the return order had been suspended by a last-minute injunction filed by the taking parent. I was able to have the suspension of the transition period overturned. However, the courts are still pending a ruling on the suspension of the return order at the STJ.    December 15, 2014, Minister Rosa Weber of the STF Court ruled in a monocrotic decision to dismiss the special appeal. January 23, 2015, the taking parent filed a motion for clarification on the dismissal of the special appeal, a well-known delay tactic. January 28, 2015, I called the STF and asked that Minister Rosa Weber decide on this case as quickly as possible, and to note the constant delay tactics being used by the taking parent.    On February 11, 2015, I received an email from the Department of State stating that the ministers at the STF converted the mother's declaratory motion to an agravo regimental. According to the OAG, this is a good sign, as it shows a tactic from the court to accelerate the process.    March 4, 2015, the special appeal of the STF was finally rejected. However, the taking parent continues to use delay tactics in order to prevent the inevitable return for my daughter back to the United States by filing yet another motion for clarification.    I am here today not to ask, but to demand, that my daughter Nadia be returned immediately to the United States without delay. This case has literally taken its legal course and justice is now overdue.    I want to thank you for your time, and I hope that my daughter Nadia will soon be returned to the United States and her habitual residence, once and for all.    Thank you.</t>
   </si>
   <si>
@@ -380,9 +356,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. And justice delayed is justice denied. Again, the three countries--and there are many others, but especially Brazil, Japan, and India--absolutely fit the criteria of non-compliant countries. And if sanctions are not imposed, and significant sanctions at that, again, they will take view of that, take the view of that that we are not serious about this child abuse, as Mr. Morehouse so aptly put it, that is being committed against your daughter and all of the other children.    I would like to now recognize Mr. Sawyer. The floor is yours.</t>
-  </si>
-  <si>
-    <t>Sawyer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sawyer. Thank you, Mr. Chairman, and Ranking Member Bass, for your ongoing support in this matter. I ask the chairman's consent to submit my entire written testimony for the record and submit additional parents' testimony as well.</t>
@@ -877,11 +850,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -901,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -929,11 +898,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -953,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -981,11 +946,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1005,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1033,11 +994,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1057,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1085,11 +1042,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1111,11 +1066,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1137,11 +1090,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1163,11 +1114,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1189,11 +1138,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1215,11 +1162,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1241,11 +1186,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1267,11 +1210,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1293,11 +1234,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1319,11 +1258,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1345,11 +1282,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1371,11 +1306,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1397,11 +1330,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1423,11 +1354,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1449,11 +1378,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1475,11 +1402,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1501,11 +1426,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1527,11 +1450,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1553,11 +1474,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1579,11 +1498,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1605,11 +1522,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1631,11 +1546,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1657,11 +1570,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1683,11 +1594,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1709,11 +1618,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1735,11 +1642,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1761,11 +1666,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1785,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1811,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1837,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1863,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
         <v>54</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1889,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>55</v>
-      </c>
-      <c r="H41" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1915,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1941,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1967,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1993,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2019,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2047,11 +1930,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2071,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2097,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2123,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2149,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2175,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2201,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2227,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2253,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2279,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2305,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2331,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2357,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2383,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2409,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2435,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2461,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2487,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2513,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2539,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2567,11 +2410,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2591,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2617,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2643,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2669,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2695,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2723,11 +2554,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2749,11 +2578,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2775,11 +2602,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2801,11 +2626,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2827,11 +2650,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2853,11 +2674,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2879,11 +2698,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2905,11 +2722,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2931,11 +2746,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2957,11 +2770,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2983,11 +2794,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3009,11 +2818,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3035,11 +2842,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3061,11 +2866,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3087,11 +2890,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3113,11 +2914,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3139,11 +2938,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3163,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3191,11 +2986,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3215,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3243,11 +3034,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3267,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>114</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3295,11 +3082,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3319,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>117</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3347,11 +3130,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3371,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3399,11 +3178,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3423,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>122</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3451,11 +3226,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3475,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>122</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3503,11 +3274,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3527,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>54</v>
-      </c>
-      <c r="G104" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3553,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>122</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3579,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>54</v>
-      </c>
-      <c r="G106" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3605,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>122</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3631,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>54</v>
-      </c>
-      <c r="G108" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3657,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>122</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3683,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>54</v>
-      </c>
-      <c r="G110" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3709,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>122</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3735,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>54</v>
-      </c>
-      <c r="G112" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3763,11 +3514,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3787,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3815,11 +3562,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3839,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>114</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3867,11 +3610,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3891,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>117</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3917,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" t="s">
-        <v>122</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3943,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3971,11 +3706,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3995,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4023,11 +3754,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4047,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4075,11 +3802,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4099,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>114</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4125,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>114</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4151,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>117</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4179,11 +3898,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4203,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>122</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4231,11 +3946,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93916.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93916.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The hearing will come to order.    Let me begin by thanking Ambassador Jacobs and all of our distinguished witnesses and guests for being here today, especially the left-behind parents that I see in the audience who are joining us this afternoon to continue to increase attention on international parental child abduction, whose victims include primarily children denied the love and attention of one of their parents, and parents cut off from their children that they love.    Every year, by some estimates, approximately 1,000 American children are unlawfully removed from their homes by one of their parents and taken across international borders. Less than half of these children ever come home. Most of the left-behind parents in the audience today have not seen their children in years and know all too well the financial, legal, cultural, and linguistic obstacles to bringing their children home from a foreign country.    Many of you have already been through a U.S. judicial proceeding prior to the abduction, and the courts have settled custody and visitation only to have a kidnapping spouse defy a court order. Others of you were caught completely by surprise when a spouse's vacation turned into an abduction, a phone call in the middle of the night telling you that you will never see your child again.    Your suffering is exponentially compounded by knowledge of the pain caused to your child by the separation. Child abduction is child abuse. Parentally abducted children are at risk of serious emotional and psychological problems and may experience anxiety, eating problems, nightmares, mood swings, sleep disturbances, aggressive behavior, resentment, guilt, and fearfulness. These young victims, like their left-behind parents, are American citizens who need the help of their Government when normal legal processes are unavailable or have failed.    In 1983, the United States ratified the Hague Convention on the Civil Aspects of International Child Abduction to try to address abduction and access. This Convention created a civil framework for a quick return of abducted children and for rights of access for left-behind parents. Absent extenuating circumstances, the child or children are to be returned within 6 weeks to his or her country of habitual residence for the courts there to decide on custody or to enforce any previous custody determinations.    The Convention has helped return some children, but implementation has been unpredictable and spotty at best. Susceptible to abuse by taking parents or judges who either don't understand their obligations under the Convention or are unwilling to abide by them, the Convention has too often been stretched to provide cover for the abduction rather than the recovery of the child.    Some Hague Convention parties are simply not enforcing legitimate return orders. The State Department's 2014 Hague Convention compliance report highlights four countries--Brazil, Mexico, Romania, and Ukraine--that habitually fail to enforce return orders. Other countries--Costa Rica, Guatemala, Honduras, and The Bahamas--are non-compliant with the Convention.    In other words, abducted American children are not coming home from these countries, and so many other countries where the Convention operates weakly or with which the United States has no bilateral agreement of any kind.    To give one more example, Jeffery Morehouse, a left-behind parent who will testify today, will say that there have been 400 cases of U.S. children kidnapped to Japan to 1994. We do not know of a single case in which the Government of Japan has issued and enforced an order for the return of an abducted child to the United States. That is unconscionable. And I must emphasize that since they have signed the Hague Convention, Japan's efforts have been breathtakingly unresponsive, especially for abductions that occurred prior to their ratification of the Hague Convention.    Mr. Morehouse will testify that 1 year ago, next week, at the very moment Japan acceded to the Hague Abduction Convention, parents joined us to hand deliver 30 Article 21 access applications. I would note parenthetically I joined those parents at the Japanese Embassy. They were unbelievably respectful and disciplined and very, very cordial, and yet very, very determined. None of the back-home parents, however, have received access to their kidnapped children. That is almost a year ago next week.    Japan's implementation of the Hague Abduction Convention--Mr. Morehouse will go on to say--is an abysmal failure. Sanctions under the Goldman Act will provide some of the necessary public pressures on Japan to create change to this ongoing human and family rights crisis.    Again, the status quo is simply not acceptable. Over the last 5 years, many of you who are here today helped me and my staff write and pass through the Congress the Sean and David Goldman International Child Abduction Prevention and Return Act, simply known as the Goldman Act. Today's hearing occurs more than 7 months after the Goldman Act became law and gives us an opportunity to hear from the State Department and parents about whether the bill's key provisions are being implemented according to the law.    A brief refresher on Sean and David, David Goldman spent over five agonizing years trying to legally rescue his son Sean from abduction to Brazil, which is a signatory nation, like the U.S., to the Hague Abduction Convention. Despite Mr. Goldman's airtight case that demonstrated an egregious example of both child abduction and wrongful retention, the Hague Treaty was unavailing and the outcomes in the Brazilian courts proved mostly infuriating and firm and ineffective.    David Goldman waged his case by the book and won judgments in New Jersey courts, yet both Sean and David were made to suffer emotional pain for over half a decade as one delaying ploy after another was employed by the abducting party. In the end, because of a father's abiding love for his son, and an indomitable will, like so many of you here today who have suffered so much, the Goldmans today are united and happy, unlike you who still are separated.    To underscore, the Goldman Act was not intended to simply reform the system, but to bring about a fundamental sea-change in U.S. diplomacy, so that the State Department officials would see themselves as advocates for the return of abducted American children.    Now, under the Goldman Act, when a country fails to appropriately address an abduction case pending for more than 12 months, the law requires the Secretary of State to take action. When a country has more than 30 percent of its U.S. cases pending for more than a year, the law requires the Secretary of State to designate the country as non-compliant in the annual report and take action.    The Goldman Act specifically lists the increasingly escalating actions that Congress has in mind, from a demarche or protest through diplomatic channels to a public condemnation to a delay or cancellation of one or more bilateral visits, and even withdrawal, limitation, or suspension of foreign assistance, including non-humanitarian aid and including security assistance to the central governmental authority of a country.    These are serious sanctions. They must be seriously applied by a country that takes parental child abduction seriously. We may also request extradition, where appropriate.    If these measures sound pointed, it is because they are intended to focus the designation country on quick and accurate resolution to abduction and access cases, and we hope to find out today from Ambassador Jacobs how these tools are being used and with what frequency.    The Goldman Act was written to cover countries that have signed the Hague Convention, such as Brazil, and countries that have not signed the Convention, such as India, and countries that have a mix of open abduction cases from before and after signing the Hague Convention, such as Japan.    In 2013, India was the number 3 destination in the world for parents who abducted from the United States. Currently, there are 64 known open abduction and denial of access cases involving India, and yet the United States does not have any sort of resolution mechanism to my knowledge in India or with India. Moms and Dads are left in the United States. They are forced to enter a foreign court system known for its incessant appeals and multi-year delays and even mega-intimidation.    But now the Goldman Act applies. India will now face real penalties for any case that has been pending for more than 1 year and will be named and shamed in the State Department's report. As with the State Department's annual Trafficking In Persons Report, there is morally suasive value in simply reporting what a country does and some countries will, I am sure, respond to such moral pressure.    Thus, we expect the State Department will apply these penalties zealously and work with India on establishing a bilateral agreement for the efficient and fair resolution of abduction and access cases. If the State Department faithfully applies the laws written, it will be in India's best interest to come to the negotiating table.    The same holds true for Japan. Even though Japan recently signed the Hague Convention, in the upcoming April report Congress expects that Japan will be evaluated not just on its handling of new abduction cases after it joined the Hague last year, but on its work to resolve all open abduction cases, including the 67 cases that I and others have been raising with State for the last 5 years.    Among such cases is that of Michael Elias, who has not seen his children, Jade and Michael, since 2008. Michael served as a Marine and saw combat in Iraq. His wife, who worked in the Japanese Consulate, used documents fraudulently obtained with the apparent complicity of the Japanese Consultant personnel to kidnap their children then aged four and two in defiance of a court order telling Michael on the phone call that there was nothing that he could do. She said, ``My country''--that is, Japan--``will protect me.'' Her country will protect her, but what is our country doing to protect Michael and his children?    While the State Department has touted Japan's accession to the Hague Convention as an accomplishment, Japan has said the Convention would only apply in post-ratification cases. As Ambassador Jacobs knows, I and several others predicted that unless an MOU or other bilateral agreement was concluded with Japan, American children and their left-behind parents will be left behind in perpetuity.    I ask my friends at the State Department once again, what then is to happen for the parents already suffering from abductions prior to ratification? Would they be left behind again, this time by their own Government?    I know Ambassador Jacobs, who is here to testify, as recently as February 2014 in her testimony before the Senate stated that she would continue to make progress with the Japanese Government on resolving existing cases in the spirit of the Convention. We will have a chance to ask the Ambassador what progress has been made on resolving cases like those of Michael Elias, Captain Paul Toland, and so many others who are suffering every single day. And I am sure when they wake up in the morning it is the first thing they think of.    The Goldman Act requires accountability for the Japanese Government on the abduction cases open at the time when Japan signed the Convention. Unless Japan resolves scores of American cases before the end of next month, nearly 100 percent of abduction cases in Japan will still be unresolved, and the Goldman Act penalties will apply.    The Goldman Act has given the State Department new and very powerful tools to bring Japan and other countries not to the negotiating table, but the resolution table. The goal is not to disrupt relations but to heal the painful rifts caused by international child abduction. I look forward to hearing testimony on the Department's use of the tools.    And I would now like to yield to Dr. Bera, serving as acting ranking member, for his opening comments.</t>
   </si>
   <si>
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Chairman Smith, and I want to thank Ranking Member Bass for as well for calling this important hearing to discuss the issue of international child abductions and the Goldman Act. I especially want to thank the chairman for his tireless effort and work on this issue.    I also want to thank the witnesses and the left-behind parents for your heartfelt testimony today. It, obviously, cannot be easy, but it is incredibly important to hear these stories.    As we will hear today, this is a serious issue. Approximately 1,000 U.S. children are reported to the State Department as victims of international child abduction annually. These abductions are devastating to families, especially to the children. Many of these children are too young to know what is occurring and are isolated from their left-behind parent. The left-behind parent has to go through a stressful and expensive legal process, and, as we will hear today, not always successfully.    One avenue to pursue in order to combat this issue is to push more countries to sign the Hague Convention. This brings those nations into a legal framework in which they can resolve the issue in a more effective manner. This, however, is not a panacea, but it is a good first step.    In addition, just signing onto the Hague Convention doesn't solve the issue if the countries don't adhere to what is in there. I am going to implore the State Department to continue to push more countries to sign the Hague Convention and continue to work on reuniting left-behind parents with their children.    And, again, I just want to commend the chairman for your tireless work on this issue.</t>
   </si>
   <si>
@@ -73,6 +88,12 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. And, Ambassador Jacobs, thank you for being back with us. It is good to have you here. You expressed your heart the last time that you were here, and I think that was evident, because one of the troubling things I think for parents--and I met one parent yesterday in the hallway coming between the Capitol and back to the offices.    One of the difficult things for a lot of parents is they see other things that the State Department is engaged in, not you, but other things that the State Department, as a whole, is engaged in. And what they have come to the realization, or at least the belief, is that it is not a priority for the State Department to return these children. And because of that, it is very difficult, as a dad, because you empathize with just the thought of not being able to visit or see your children, that priority.    So I am looking forward to hearing from you today on the progress we have made since the last hearing where we had a chance to hear a little bit from your heart.    But I want to put it in the context, you know, when we see the State Department, when we see five GTMO prisoners being traded for a potential deserter, and we see that kind of priority from the administration and we don't see progress here.    What happens is there is this balance that goes out, and I am not trying to be critical of that decision or of your agency. I am just saying there is a natural assumption that says, well, if they would make the same priority for my son or daughter, I would get to see them.    And so I hope that we hear some of that from you today. I do appreciate you coming back and the emphasis that you put on it. And I will yield back to the chairman.</t>
   </si>
   <si>
@@ -82,6 +103,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Walorski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Walorski. Thank you, Mr. Chairman. I am grateful for your efforts and for the help that you have given me and remain grateful. I am grateful I am allowed to come as a non-member.    The Honorable Ambassador, I actually came to seek your help. And I really, in the short amount of time in an opening statement, just want to familiarize with a case that I am working on in the State of Indiana. I have worked on this for 3 years. The case has been active for five. And I know this is small, but forgive me, this actually just came from Cyprus.    These are my constituents. This is Marla Smith-Theocharides, and her kids were kidnapped in Cyprus. And there is domestic problems in my district in Indiana. This couple was divorced. We have been working through every single legal channel there has been trying to secure the release of these kids.    And I literally came here today, and I am grateful to this chairman, I was so thrilled to hear that the Goldman bill passed and that there maybe was some help for people in my district, because, you know, I look at this, and you have done phenomenal work on this. I am here in my role, you know, as a Congresswoman representing these kids and this mother. I am also here as a fellow advocate on domestic violence and the things that we have all worked on our whole lives.    But I am appealing to you in the position that I have to say we need help. We can't move the Cypriot Government. We have used every law that we can. They are completely ignoring it. They are denying any kind of help for this woman and these kids. And it is an honor for me to actually just be able to sit here and have engaged in a conversation with you just to try to get your help, because you know what?    And, you know, my point earlier to you--and, again, for the record, is, you know, we are--I am not a believer in domestic violence. I have fought domestic violence my entire life, all over the globe, not just my district but in places like Eastern Europe and Romania where my husband and I were missionaries.    And back to the chairman's point, these are American kids. This is a mother of two kids who has lost access to these kids, has no help whatsoever from the Government that she is trying to comply with. We have gone through every channel possible, and there is police reports filed of this estranged husband coming back, perpetrating violence on her, there is violence being perpetrated on these kids, and they are American citizens.    And I just would implore you and am grateful to you, so thankful that you are here today, thankful that I am allowed the opportunity to make this case, but just wanted to make you aware of it. And I am definitely going to follow up, but just asking for your help on behalf of these constituents in the State of Indiana.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -169,6 +193,12 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you very much, Mr. Chair. As usual, this is an issue that you have championed for many years. I will share with my other colleague there, I remember years ago watching the case in Brazil, long before I ever knew I would be coming to Congress, and then I get to sit next to the person that championed it, so--along with your leadership for many years.    I just have a couple of questions. I wanted to know if you could describe how our Government is engaging in efforts to prevent these abductions from taking place in the first place, and how our Government measures the effectiveness of programs to prevent the abductions. And then, what actions has the State Department taken to encourage mediation as an option for returning children? Especially to return children from countries that are not Hague Convention participants.    Ambassador Jacobs. Thank you so much for those questions. We have a number of programs to protect children from abduction, some of them of longer standing than others. All of them are really a part of the Operation Prevent Depart. So we have for children under the age of 16 a two-parent consent rule, which means both parents have to give their permission for a child to be issued a passport.    And we also have a Passport Alert Program where a parent who feels their child will be abducted can notify us, and we will put an alert in the system so that a passport will not be issued unless the parent who put the hold in is notified. And it is hard to know what the success rate is, but it is a deterrent and it works.    We also work very closely with Customs and Border Protection to prevent departures from the United States. We also have the prevention working group that I chair with members from Justice, Homeland Security, it will include Defense now, and the Federal Bureau of Investigation, and we work on new programs.    This is mandated by the law. It is something that we had started doing before, and we do work very closely with law enforcement. And I think it is effective. As you know, it is easier to prevent the abduction than it is to get a child back.</t>
   </si>
   <si>
@@ -334,18 +364,27 @@
     <t xml:space="preserve">    Mr. Smith. Ms. Philips.</t>
   </si>
   <si>
+    <t>Philips</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Philips. Thank you, Mr. Chairman, and distinguished members of the committee. It is my honor and privilege to testify before you today, and I thank you for your time to hear of my plight.    My name is Bindu Philips, and it is my ardent hope that my story will capture your attention today. While I have held many roles in life, none has been more meaningful to me than that of motherhood. Fourteen years ago, I was blessed to be the mother of twin boys, my precious children, Albert Philip Jacob and Alfred William Jacob.    When my children were born, my ex-husband, Sunil Jacob, and I made a joint decision that I would stay home with them and be their primary caretaker. I was an active and loving mother in every aspect of our children's lives. My children came first in everything I did and in every decision I made.    Tragically, my world, and that of my innocent children, was violently disrupted by my ex-husband, Sunil Jacob, in December 2008 when he orchestrated the kidnapping of the children during a vacation to India. I would note that the children, my ex-husband, and I are American citizens, and the children were born in America, which is the only nation they identified with as home.    Sunil Jacob worked in the financial industry and was terminated by his employer, Citi Group, late in 2008. My ex-husband pressed me to agree to a family vacation to India during the children's winter break. My ex-husband was both physically and emotionally abusive to me, and I feared the consequences of refusing him. I had seen the return tickets dated January 12, 2009, and I had every reason to believe that we would be home in a few weeks to resume our life back in the United States. Had I known what would follow, I would have never boarded that flight to India.    On reaching India, I was not only physically and emotionally abused by my ex-husband, but also by his parents. I was, finally, very cruelly separated from my children with no means to communicate with them.    I could not bear the separation of my children, and on learning that my children were admitted to a local school in India I approached the principal requesting that I be allowed to see my children, and I was granted permission. As soon as my husband learned about this, he transferred them to anther school and gave the school strict orders that the mother or any material relatives should not be allowed to see or communicate with the children.    Unable to communicate with the children, I ultimately returned to the United States 4 months later on April 9, 2009. I literally came home to an empty house. Our residence in Plainsboro was devoid of all furniture and possessions and both the cars were gone from the garage. While in India, my ex-husband had three of his friends strip the entire house of everything inside. They took everything, leaving me with not even a single photograph of my children.    He had not paid the mortgage on the Plainsboro home, nor the utilities, or the equity line of credit, which he had transferred to India, and left me with this additional financial burden.    Heartbroken and impoverished, I had to start from nothing and survived initially on the graciousness of good people. My neighbors allowed me to move in with them briefly, and a local church provided me a car. Shortly thereafter, I found employment, secured an apartment, and purchased a car of my own.    Over the last 6 years, I continue to uncover information that shows how deceptive my ex-husband, Sunil Jacob, is. The investigation reports from the Plainsboro Police show that he had planned the move to India as early as March 2008. He had communicated his intentions to the principal of the children's elementary school, without my knowledge.    In November 2008, 1 month before the trip to India, Sunil Jacob obtained an Indian visa for him and the children, known as OCI, Overseas Citizen of India, that would allow him and the children to stay for an extended period of time in India, since the children are American citizens, and without an OCI visa they can stay in India only for 6 months.    An Indian OCI visa is granted to minor children only after the approval of both parents. Sunil Jacob obtained the visas by fraudulent means, as I have not signed on any OCI application for my children. Sunil Jacob, an American citizen, deceptively abducted my American citizen children and is staying in India, out of my reach, and that of the Hague Convention, indefinitely. Please note, India does not honor dual citizenship.    I also came to know that he has remarried. In 2013, Sunil Jacob's family member confirmed with the Plainsboro Police that the separation of the children from me was planned well in advance.    Frustrated, but determined, on May 14, 2009, I filed a petition with the Superior Court of New Jersey for the custody of our children. Sunil Jacob tried to delay the matter by arguing that the U.S. did not have jurisdiction to hear the case, but the American courts, both the Superior Court and the appellate levels, have held that the jurisdiction was indeed proper with the Superior Court family part.    My ex-husband was in contempt of the court order granting me parenting time over the children's winter break, although he participated in this hearing over the phone. The flight information was conveyed to Sunil Jacob. The Honorable Superior Court of New Jersey granted me residential and legal custody of the children in December 2009. The U.S. court order was served to Sunil Jacob by the U.S. Court and the Ministry of Law and Justice, New Delhi, India.    The Plainsboro Police and the FBI have issued arrest warrants against Sunil Jacob. Please note, in 2007, while Sunil Jacob was working at Citi Group, he was involved in an unknown incident at his office that resulted in an FBI inquiry on him. His colleague told me when I returned that he had an affair with an Indian woman at his office.    Despite having kidnapped our children, Sunil Jacob filed for custody of the children in the Indian courts after the U.S. child custody was filed. The case is currently pending at the Honorable Supreme Court of India.    In addition to wrongfully keeping the children from me, Sunil Jacob has thwarted every effort I have made to speak to our children and let them know I love them. Beyond kidnapping, Sunil Jacob continues to file false cases against members of my family and me in India and is brainwashing and alienating the children from their own mother. He believes that if his campaign for harassment becomes too much for me to bear, we will back away from the quest for me to regain custody of our children. He must learn that this will not happen. He must be held accountable for his reprehensive actions.    My children have lost 6 years of their mother's love and care, and I have lost 6 years of my children's childhood that neither of us will ever get back.    Every day I awaken with the heart-wrenching reality that I am separated from my children that I love more than anything in this world. I have done everything I can think of to do in this nightmarish situation, and I will never give up on my children. Yet I am here because I can no longer fight the good fight on my own. I respectfully request that you, the Members of the Congress, help me to make my voice heard in a way that shall be meaningful and allow me to be reunited with my children who need the love and nurturing of their mother.    Please help me put an end to the nightmare that Sunil Jacob has created for my family. Please help my precious children and me. I do not want to know, and cannot imagine, a meaningful life without them. Please act not just on the benefit of two innocent children and their broken-hearted mother. Please think of all of the other children and parents caught in similar nightmarish situations due to the hostile-minded parents who abduct children to overseas nations.    I am very thankful to Congressman Chris Smith and his staff for working so hard and passing the Sean and David Goldman International Child Abduction Prevention and Return Act of 2014. I thank Congressman Chris Smith for being a champion for the noble cause of reuniting the children and their left-behind parents and for being an angel to our children and to us, the left-behind parents.    The Goldman Act was signed into law by President Obama on August 8, 2014. Goldman Act instructs the State Department to take serious action when the case is pending for over a year, and my case has been pending for over 6 years, and I am waiting for the State Department to reunite me with my precious children. The State Department can also apply Section 201, which is high level diplomacy and extradition of my children on my case now, and I am hoping and trusting that they will do so without any further delay.    I request the State Department and the Office of Children's Issues to take speedy action, and to please implement the law as soon as possible and put a smile back on the faces of our children and us, the left-behind parents.    Thank you from the bottom of my heart for accepting my humble request during your otherwise pressing schedules. Thank you so much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you so very, very much for your testimony and your example, which encourages all of us to do more.    Mr. Morehouse, you are recognized.</t>
   </si>
   <si>
+    <t>Morehouse</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Morehouse. Thank you to the chairman and the committee for inviting me here today. I will be summarizing my written testimony for you.    There have been 400 cases of U.S. children kidnapped to Japan since 1994. The Japanese Government has returned zero children.    On behalf of the 71 kidnapped children listed on the BAC Home Web site, who have been rendered voiceless by their abductors, for my fellow parents of internationally kidnapped children who feel marginalized by the lack of active, engaged, transparent assistance from the Office of Children's Issues in recovering their loved ones, I implore Congress to ensure that the Department of State finds Japan non-compliant and imposes sanctions under the Goldman Act.    One year ago next week, at the very moment Japan acceded to the Hague Abduction Convention, parents joined together to hand-deliver with us 30 applications for access under Article 21. This was supposed to be an efficient path to see our children again. Though we parents may have applied for access under Article 21, as we were encouraged to do so by the Department of State, our collective cases remain abduction cases.    Over the past 12 months, the Office of Children's Issues time and again insisted that we must give Japan time. We must wait and see. Well, we have waited and we have seen. None of the BAC Home parents have received any access to their children. Japan's implementation of the Hague Abduction Convention is an abysmal failure. Sanctions under the Goldman Act will provide some of the necessary public pressure on Japan to create change in this ongoing human and family rights crisis.    It is crucial that Members of Congress be made aware of the first Hague Article 21 access case to make it through the Japanese family court process. This case is typical of what parents are encountering in their attempts to gain access to their kidnapped children. Under Article 21, the central authorities are bound to promote peaceful enjoyment of access rights and fulfillment of any conditions to which the exercise of those rights may be subject.    The central authorities shall take steps to remove, as far as possible, all obstacles to the exercise of such rights. Now, instead of removing obstacles, the Japanese Government has erected multiple barriers interfering with the exercise of parental rights. These actions are prejudicial and designed to prevent victimized parents from gaining access to his or her children.    The actions by the court in this pioneer case include: One, a request by Henrik Teton for interim access to his children under the Hague, which was ignored by the court. Two, the judge walked out of the room when the father, who was representing himself, asked questions of the court. And, three, the father, who was denied the use of his own translator, was forced to use a court-appointed translator with no ability to ensure that the translations were accurate. Number four, the judge refused to provide his name; therefore, making accountability of his rulings impossible. And, five, the judge ruled that no observers, including Embassy officials, were allowed to witness the proceedings.    In my written testimony, I will also outline what some of the other parents have faced in their failed attempts to gain access.    Now, in consulting with Japanese lawyers, it has become very clear to BAC Home that Japan's implementation provides no reasonable, enforceable means for victimized parents to access or obtain the return of their children. They are simply violating the Hague Abduction Convention and non-compliant, as a country, under the Goldman Act.    There are numerous clear-cut cases of abduction, such as Paul Toland and Paul Wong. Though they are both the only living parent, the grandparents in Japan are holding their daughters from them. There are cases like Randy Collins, whose ex-wife was ordered to surrender the child's passport to the court, and instead she kidnapped him.    Douglass Berg's children were kidnapped from their habitual and legal residence in the United States in 2009 violating his parental rights to access. And Christopher Savoie's ex-wife violated the divorce decree, State, and Federal statutes, when she kidnapped their children.    Now, in my own case, I was granted primary custody of my son in the State of Washington in May 2007. Three years later, in June 2010, I dropped my son Mochi off to begin a week-long visit with his mother. He was 6\\1/2\\ years old. This is where my endless nightmare began.    Six days later, I received a phone call that no parent wants to receive. It was the police. My son and ex-wife had been reported missing. I knew immediately what had happened. She had succeeded in what she had intended on doing, which was kidnapping him to Japan. In that moment, my life was shattered. My days would become consumed with dealing with local law enforcement, the U.S. Department of State, Japanese consular officials, and anything I could think of to try and find my boy.    Now, how could this happen to my child? I did everything I could think of to prevent this. There were even passport and travel restraints in the court order, which barred her from leaving the State of Washington with him. Well, I came to learn the hard way that restraints are only effective if somebody is willing to abide by them. For someone intending to commit kidnapping, restraints have true little power.    When the Seattle Consulate of Japan denied my ex-wife's attempt to obtain a passport, she simply went to the Consulate in Portland, and they issued her one in violation of the Ministry of Foreign Affairs' passport issuance policy.    Some people over the past several years have said to me, ``Well, you know, at least you know where he is. He is safe with his mother.'' But he is not safe. He is at risk. She has willingly and intentionally kidnapped him to a foreign land with the intent of permanently alienating him from me and everyone he knows.    Imagine, just for a minute, being a child and your mother steals you away to a foreign country, and tells you your father doesn't want you anymore or that he is dead. Your whole life is now built on a foundation of lies. This is not what a healthy parent does. This is child abuse.    Every morning I wake up twice. The first time I have this feeling I have to rush out of bed and get my son ready for school, and I can hear his voice and he is saying, ``Daddy, can I have toast and honey for breakfast?'' And I have to get him ready for school. And then my heart skips a beat, and I wake up for real, and I realize he is still missing and that the nightmare continues.    The last time I held his hand, the last time I heard my son's voice, was on Father's Day of 2010.    Last year in my case I won a landmark ruling in Japan where the court acknowledged my U.S. custody order and recognized me as the sole custodial parent under Japanese law. My ex-wife has no legal custody rights there. They also cited her admission of committing illegal acts under Japanese law in order to abduct my son. However, they are still not telling me where he is. He is still being help captive.    Private, back room diplomacy has failed. It has failed to return my son and any of the other kidnapped American children. Public statements by Secretary Kerry, Ambassador Kennedy, and President Obama, could have meaningful effect, but to date we have only heard silence.    It has been Congress that has led the charge on this abduction crisis with Japan, and I urge Members of Congress to ensure that the Department of State finds Japan non-compliant and that sanctions are imposed under the Goldman Act. Without public consequences, there will be no incentive for Japan to change. It will remain a black hole for child abduction.    Now is the time for Japan to demonstrate they are serious about changing course on this ongoing crisis of international parental child abduction. Next month, Prime Minister Abe will come visit Congress and address Congress here in Washington. In addition to non-compliance and sanctions, I am here to ask Congress to tell the Prime Minister that it is not acceptable to continue to hold ``Mochi'' Atomu Imoto Morehouse, or any of the 400 kidnapped American children, anymore.    Thank you for your time today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Mr. Morehouse, thank you very much for your very moving testimony.    I would like to now recognize Mr. Davenport.</t>
   </si>
   <si>
+    <t>Davenport</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davenport. Hello. Thank you for having me here today.    In the words of David Goldman on February 27, 2014, at the U.S. Senate Committee on Foreign Relations Hearing on International Parental Child Abduction,        ``My foundation has been assisting a father by the name         of Devon Davenport of North Carolina, whose daughter         Nadia was abducted to Brazil in 2009, just a few weeks         after her birth. Mr. Davenport has fought admirably to         bring Nadia home. In September 2010, a Federal court         first ordered her return to the United States. Since         then, the return order has been upheld by numerous         appeals courts and the legal case is effectively over,         yet Devon is still waiting, as I did, for Brazilian         courts to enforce their own return order and put Nadia         back on a plane to the United States. Our Government         should be demanding, not asking, that Nadia be         returned.''    I am Devon Davenport, the 28-year-old father of Nadia Lynn, and I still happen to be waiting for justice concerning her illegal abduction to Brazil some 6 years ago.    I believe that it has been made evident in the past via various testimonies from left-behind parents and politicians that the issue of international child abduction is a great concern. However, it is absurd that after the immense effort to pass Chris Smith's Goldman Act that we must convince the U.S. Department of State, the sole governmental department responsible for assisting left-behind parents, systematically navigate legally through the Hague Convention Treaty to effectively utilize the rhetoric, equipping them with necessary tools to increase resolutions for international abduction cases.    The U.S. Department of State no longer lacks the necessary tools needed in order to optimize and create an efficiently robust pipeline for handling Hague cases and distributing pertinent information between left-behind parents and central authorities from opposing countries.    Countless times throughout my 6-year legal battle, I have been the one to provide updates and ask follow-up questions in hopes of obtaining valuable information toward an actual resolution of my case. The Department of State is notorious for providing me with the exact same information I provide them with. Hardly do I ever obtain any new information, and I believe that derives from the fact that they are not proactive in their question for justice of behalf of left-behind parents.    An example is today when you asked how many cases, how many returns. They don't even know this type of information. They will get it once you prompt them, but they should have come prepared with that type of information. They should know these numbers. This is what left-behind parents deal with on a daily basis, dealing with the Department of State.    The inability and lack of foresight to initiate constructive yet progressive inquiries to the opposing central authority is not acceptable. Case officers working for the U.S. Department of State should not only be able to predict the questions and concerns of left-behind parents, but also take appropriate measures in obtaining the answers to those questions and concerns while providing feedback to those of us fighting the lengthy battle.    The reason for this inability is the lack of empathy, initiative, and urgency; no longer the tools. Herein lies the issue. Until case workers at the Department of State are able to anticipate the next steps in a given Hague case based on years of internal evidential information from various left-behind parents in each country, then there will be no progressive action taken by them to provide information that some parents never think to ask, but deserve to know, as we look to the Department of State as a source of information and mental solidarity.    Since birth in August 2008, my daughter Nadia Lynn resided with her mother, Larissa Drummond, in Cary, North Carolina. Due to parental alienation and prior threats to leave the country with my daughter to Brazil, a court order was filed and established August 20, 2008, restricting the removal of my daughter outside of the State, as well as confiscation of my daughter's passport to prevent abduction.    At the same time, a custody order was filed and signed on October 8, 2008, by District Court Judge Walczyk, and went into effect on October 14, 2008, notifying each parent that it is a felony to transport the minor child outside of the state. The court order also states that it shall remain into effect until replaced by another parenting agreement or court order pertaining to custody.    According to the signed court-ordered visitation schedule between Larissa Drummond and I, October 14, 2008, our daughter Nadia Lynn was scheduled to have visitation at my residence on Mondays, Tuesdays, and Saturdays. On Saturday, February 7, 2009, my daughter was not brought to my residence for visitation scheduled at 8 o'clock a.m.    At 8:07, I immediately contacted Larissa asking where she was. After getting no response, I contacted her mother. I then called the Cary Police Department. Upon their arrival, I provided the court-ordered visitation, and the officer and I went to Larissa's residence and found the house empty.    With knowledge of prior threats made by Larissa to leave the country with my daughter back to Brazil, we contacted the U.S. Department of State to inquire about a possible abduction and were informed that I would receive a call on Monday, February 9, 2009, from the abduction officer who handles cases to Brazil, who happened to be Ms. Daisy Cardiel at the time. Soon after, I received from NCMEC a protocol number for my daughter, as well as a kidnapping case number for my daughter.    There was a court order calendared by Wake County Courthouse to have my name added to my daughter's birth certificate. On February 10, 2009, I filed to have an emergency order granting me sole legal and physical custody of my daughter Nadia, as well as immediate return of her back to her habitual residence in North Carolina, which Judge Walczyk signed on February 12, 2009.    April 20, 2009, the Department of State emailed me saying, ``The Brazilian Central Authority would like me to inform you that your case was sent to Interpol on 2009, April 2. Furthermore, despite the fact that the child has not been located, the Brazilian Central Authority sent the file to the Federal Attorney's Office in order to commence an analysis on your case.''    April 19, 2009, I receive a message on the Bring Sean Home Foundation forum from a 21-year-old law student asking me about information on my daughter and the mother. I provided the last name, first name, and possible state that my daughter would be in. Eight days later he provides me with the address of my daughter in Brazil, while it had taken Interpol and the FBI, what, 4 months. They still hadn't found her.    I provided this information to the U.S. Department of State May 6, 2009. It took them 3 months later to confirm the address that I provided them.    April 14, 2010, I arrived in Brazil for the first instance hearing on the international abduction of my daughter Nadia Lynn. September 14, 2010, I received a favorable ruling, which issued the return of Nadia back to the United States. I was ordered to spend a 15-day transition period in Brazil before returning. During this transition period, the mother filed an appeal, ultimately suspending the return as well as the transition period between Nadia and I, on September 26, 2010.    November 30, 2011, the TRF Federal Court of Brazil rejected the mother's appeal by a majority panel. She appealed again within the Federal Court. March 23, 2012, the Federal judge upheld the first instance court order for the return of Nadia back to the United States. The mother filed another appeal to the Superior and Supreme courts.    May 21, 2012, Special Advisor for Children's Issues, Ambassador Susan Jacobs, spoke to the Brazilian Central Authority directly and requested that my case be expedited and expressed her concerns on the delays and appeals that my case has received. April 11, 2013, TRF President rejected the appeal filed by the mother before the STJ and STF. And I was told that the request for the enforcement of my daughter to return back to the United States will be filed on April 30. It was not.    August 14, 2013, Ambassador Susan Jacobs and Scott Renner traveled to Brasilia, Brazil, to speak directly with proper personnel to have my case expedited and ruled on. However, I received no official report on this meeting. I have no clue what was discussed, with whom the discussion occurred, and what the outcome of said meeting was, although I was told that I would receive a formal detailed summary within 3 weeks. I was never sent that information.    August 27, 2013, a hearing at the first instance court in Criciuma was scheduled in which the charge of the enforcement order would decide the logistics of the return. Instead, they postponed this, and the appeal was dismissed at the STJ Court in Brasilia, Brazil. September 6, 2013, the appeal was dismissed by the sitting judge at the STJ Court in Brasilia. Being that it was a monocrotic decision, the mother appealed again.    September 27, 2013, the Brazilian Central Authority and OAG filed a motion on the first instance court for the temporary execution of the enforcement order. This was a request that the judge not wait until the appeals were decided upon. The judge was to formally respond to this motion with a decision.    October 11, 2013, I was informed that my case would be heard on October 17. It wasn't. October 17, instead of ruling on the appeal, it was removed from the agenda.    April 14, 2013, the STJ and STF appeals to the return order were rejected by the TRF president and were yet again appealed only once again to be dismissed by the STJ on September 10, 2013, ultimately allowing Nadia to return to the United States once and for all following a 15-day transition period in Brazil set to occur in 2014.    June 17, 2014, I traveled to Brazil to complete the 15-day transition period with my daughter, with the expectation to return home once and for all to the United States. Upon arrival to Brazil, I was immediately served with another appeal stating the transition period and the return order had been suspended by a last-minute injunction filed by the taking parent. I was able to have the suspension of the transition period overturned. However, the courts are still pending a ruling on the suspension of the return order at the STJ.    December 15, 2014, Minister Rosa Weber of the STF Court ruled in a monocrotic decision to dismiss the special appeal. January 23, 2015, the taking parent filed a motion for clarification on the dismissal of the special appeal, a well-known delay tactic. January 28, 2015, I called the STF and asked that Minister Rosa Weber decide on this case as quickly as possible, and to note the constant delay tactics being used by the taking parent.    On February 11, 2015, I received an email from the Department of State stating that the ministers at the STF converted the mother's declaratory motion to an agravo regimental. According to the OAG, this is a good sign, as it shows a tactic from the court to accelerate the process.    March 4, 2015, the special appeal of the STF was finally rejected. However, the taking parent continues to use delay tactics in order to prevent the inevitable return for my daughter back to the United States by filing yet another motion for clarification.    I am here today not to ask, but to demand, that my daughter Nadia be returned immediately to the United States without delay. This case has literally taken its legal course and justice is now overdue.    I want to thank you for your time, and I hope that my daughter Nadia will soon be returned to the United States and her habitual residence, once and for all.    Thank you.</t>
   </si>
   <si>
@@ -356,6 +395,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. And justice delayed is justice denied. Again, the three countries--and there are many others, but especially Brazil, Japan, and India--absolutely fit the criteria of non-compliant countries. And if sanctions are not imposed, and significant sanctions at that, again, they will take view of that, take the view of that that we are not serious about this child abuse, as Mr. Morehouse so aptly put it, that is being committed against your daughter and all of the other children.    I would like to now recognize Mr. Sawyer. The floor is yours.</t>
+  </si>
+  <si>
+    <t>Sawyer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sawyer. Thank you, Mr. Chairman, and Ranking Member Bass, for your ongoing support in this matter. I ask the chairman's consent to submit my entire written testimony for the record and submit additional parents' testimony as well.</t>
@@ -800,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +850,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,3125 +872,3724 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
       <c r="H46" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s">
+        <v>119</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s">
+        <v>122</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s">
+        <v>127</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G102" t="s">
+        <v>127</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>50</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G104" t="s">
+        <v>59</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s">
+        <v>127</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>50</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G106" t="s">
+        <v>59</v>
+      </c>
       <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s">
+        <v>127</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G108" t="s">
+        <v>59</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
+        <v>127</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>50</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G110" t="s">
+        <v>59</v>
+      </c>
       <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>50</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G112" t="s">
+        <v>59</v>
+      </c>
       <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G114" t="s">
+        <v>116</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s">
+        <v>119</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s">
+        <v>122</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G119" t="s">
+        <v>127</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s">
+        <v>116</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s">
+        <v>116</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s">
+        <v>116</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>119</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G127" t="s">
+        <v>119</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s">
+        <v>122</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s">
+        <v>127</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>145</v>
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93916.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93916.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Bera</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
   </si>
   <si>
     <t>412404</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Bass</t>
@@ -842,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,7 +862,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,3721 +887,4060 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I40" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>120</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>119</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>123</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>122</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G98" t="s">
-        <v>122</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>126</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>127</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>131</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" t="s">
-        <v>127</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>131</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G104" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H104" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" t="s">
-        <v>127</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>131</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G106" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H106" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>28</v>
-      </c>
-      <c r="G107" t="s">
-        <v>127</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>131</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G108" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H108" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
-      </c>
-      <c r="G109" t="s">
-        <v>127</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>131</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G110" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H110" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
-      </c>
-      <c r="G111" t="s">
-        <v>127</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>131</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G112" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H112" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G114" t="s">
-        <v>116</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>120</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" t="s">
-        <v>119</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>123</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" t="s">
-        <v>122</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>126</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
-      </c>
-      <c r="G119" t="s">
-        <v>127</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>131</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" t="s">
-        <v>116</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>120</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" t="s">
-        <v>116</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>120</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>116</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>120</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" t="s">
-        <v>119</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>123</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
-      </c>
-      <c r="G127" t="s">
-        <v>119</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>123</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s">
-        <v>122</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>126</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>127</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>131</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>159</v>
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
